--- a/Excel/I18NConfig@c.xlsx
+++ b/Excel/I18NConfig@c.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F43E1A-3567-4F98-A249-6B1BCCD87FB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667A1116-551D-403E-B542-D9223CF64D58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
   <si>
     <t>Id</t>
   </si>
@@ -330,13 +330,58 @@
   <si>
     <t>Update_SuDownload</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_AutoPlay</t>
+  </si>
+  <si>
+    <t>自动播放</t>
+  </si>
+  <si>
+    <t>AutoPlay</t>
+  </si>
+  <si>
+    <t>Global_QuickPlay</t>
+  </si>
+  <si>
+    <t>快进</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Global_Record</t>
+  </si>
+  <si>
+    <t>对话记录</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>GalGame_Stop</t>
+  </si>
+  <si>
+    <t>停止播放</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>RoleName_Unknow</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +393,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -355,6 +401,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -369,6 +416,26 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="方正大黑体_GBK"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -398,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -418,6 +485,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,13 +800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F34"/>
+  <dimension ref="C3:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -738,7 +815,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -752,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -766,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -780,7 +857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:6" s="1" customFormat="1">
       <c r="C6" s="5">
         <v>0</v>
       </c>
@@ -794,7 +871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:6" s="1" customFormat="1">
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -808,7 +885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -822,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -836,7 +913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -850,7 +927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -864,7 +941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -878,7 +955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6">
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -892,7 +969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6">
       <c r="C14" s="3">
         <v>8</v>
       </c>
@@ -906,7 +983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6">
       <c r="C15" s="3">
         <v>9</v>
       </c>
@@ -920,7 +997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6">
       <c r="C16" s="3">
         <v>10</v>
       </c>
@@ -934,7 +1011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6">
       <c r="C17" s="3">
         <v>11</v>
       </c>
@@ -948,7 +1025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6">
       <c r="C18" s="3">
         <v>12</v>
       </c>
@@ -962,7 +1039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:6">
       <c r="C19" s="3">
         <v>13</v>
       </c>
@@ -976,7 +1053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:6">
       <c r="C20" s="3">
         <v>14</v>
       </c>
@@ -990,7 +1067,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:6">
       <c r="C21" s="3">
         <v>15</v>
       </c>
@@ -1004,7 +1081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:6">
       <c r="C22" s="3">
         <v>16</v>
       </c>
@@ -1018,7 +1095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:6">
       <c r="C23" s="3">
         <v>17</v>
       </c>
@@ -1032,7 +1109,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:6">
       <c r="C24" s="3">
         <v>18</v>
       </c>
@@ -1046,7 +1123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6">
       <c r="C25" s="3">
         <v>19</v>
       </c>
@@ -1060,7 +1137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:6">
       <c r="C26" s="3">
         <v>20</v>
       </c>
@@ -1074,7 +1151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6">
       <c r="C27" s="3">
         <v>21</v>
       </c>
@@ -1088,7 +1165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:6">
       <c r="C28" s="6">
         <v>22</v>
       </c>
@@ -1102,7 +1179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:6">
       <c r="C29" s="3">
         <v>23</v>
       </c>
@@ -1116,7 +1193,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:6">
       <c r="C30" s="6">
         <v>24</v>
       </c>
@@ -1130,7 +1207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:6">
       <c r="C31" s="3">
         <v>25</v>
       </c>
@@ -1144,7 +1221,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:6">
       <c r="C32" s="6">
         <v>26</v>
       </c>
@@ -1158,7 +1235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6">
       <c r="C33" s="3">
         <v>27</v>
       </c>
@@ -1172,7 +1249,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6">
       <c r="C34" s="6">
         <v>28</v>
       </c>
@@ -1184,6 +1261,76 @@
       </c>
       <c r="F34" s="6" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="15.75">
+      <c r="C35" s="9">
+        <v>29</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="15">
+      <c r="C36" s="9">
+        <v>30</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="15">
+      <c r="C37" s="9">
+        <v>31</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="9">
+        <v>32</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="15.75">
+      <c r="C39" s="9">
+        <v>33</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/I18NConfig@c.xlsx
+++ b/Excel/I18NConfig@c.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667A1116-551D-403E-B542-D9223CF64D58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18975" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +52,9 @@
     <t>Unknow</t>
   </si>
   <si>
+    <t>Btn_Enter_Game</t>
+  </si>
+  <si>
     <t>进入游戏</t>
   </si>
   <si>
@@ -73,12 +70,18 @@
     <t>Create Role</t>
   </si>
   <si>
+    <t>Global_Btn_Confirm</t>
+  </si>
+  <si>
     <t>确定</t>
   </si>
   <si>
     <t>Confirm</t>
   </si>
   <si>
+    <t>Global_Btn_Cancel</t>
+  </si>
+  <si>
     <t>取消</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
     <t>Confirm quitting the game?</t>
   </si>
   <si>
+    <t>Btn_Exit</t>
+  </si>
+  <si>
     <t>Exit</t>
   </si>
   <si>
@@ -232,104 +238,67 @@
     <t>The server is disconnected. Please log in to the server again</t>
   </si>
   <si>
-    <t>Global_Btn_Confirm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Global_Btn_Cancel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Btn_Exit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Btn_Enter_Game</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Update_Get_Fail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取更新失败，请检查网络</t>
   </si>
   <si>
     <t>Failed to get update. Please check the network</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取更新失败，请检查网络</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Update_ReTry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>重试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Retry</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_Download_Fail</t>
+  </si>
+  <si>
+    <t>下载失败，请检查网络</t>
   </si>
   <si>
     <t>Download failed, please check the network</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载失败，请检查网络</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update_Download_Fail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_Info</t>
   </si>
   <si>
     <t>检测到資源更新\n更新包大小：&lt;color=#DB744C&gt;{0}&lt;/color&gt; MB\n是否立即下載？</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Resource update detected \nupdate package size: &lt;color=#db744c&gt;{0}&lt;/color&gt; MB \ndo you want to download it now?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update_Info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_White</t>
   </si>
   <si>
     <t>是否进入白名单模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Enter white list mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update_White</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_ReDownload</t>
+  </si>
+  <si>
+    <t>当前版本太低，请重新下载客户端</t>
   </si>
   <si>
     <t>The current version is too low, please download the client again</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前版本太低，请重新下载客户端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update_ReDownload</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update_SuDownload</t>
+  </si>
+  <si>
+    <t>当前版本较低。建议下载最新的客户端</t>
   </si>
   <si>
     <t>The current version is lower. It is recommended to download the latest client</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前版本较低。建议下载最新的客户端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update_SuDownload</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Global_AutoPlay</t>
@@ -375,13 +344,28 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Btn_Update_Skip</t>
+  </si>
+  <si>
+    <t>跳过更新</t>
+  </si>
+  <si>
+    <t>Skip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,7 +377,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -401,35 +384,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -438,8 +404,152 @@
       <name val="方正大黑体_GBK"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,8 +562,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -461,11 +757,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,34 +1018,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -794,19 +1370,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -857,7 +1433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="3:6">
       <c r="C6" s="5">
         <v>0</v>
       </c>
@@ -871,18 +1447,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="3:6" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="3:6">
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>73</v>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="3:6">
@@ -890,41 +1466,41 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>70</v>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="3">
         <v>4</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>71</v>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="3:6">
@@ -932,13 +1508,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="3:6">
@@ -946,13 +1522,13 @@
         <v>6</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="3:6">
@@ -960,13 +1536,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="3:6">
@@ -974,13 +1550,13 @@
         <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="3:6">
@@ -988,13 +1564,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="3:6">
@@ -1002,13 +1578,13 @@
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -1016,13 +1592,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:6">
@@ -1030,13 +1606,13 @@
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:6">
@@ -1044,13 +1620,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="3:6">
@@ -1058,13 +1634,13 @@
         <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="3:6">
@@ -1072,13 +1648,13 @@
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="3:6">
@@ -1086,13 +1662,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="3:6">
@@ -1100,27 +1676,27 @@
         <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="3">
         <v>18</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>72</v>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="3:6">
@@ -1128,13 +1704,13 @@
         <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -1142,13 +1718,13 @@
         <v>20</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="3:6">
@@ -1156,118 +1732,118 @@
         <v>21</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>22</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="3">
         <v>23</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>24</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="3">
         <v>25</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="32" spans="3:6">
-      <c r="C32" s="6">
+      <c r="C32" s="3">
         <v>26</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="3">
         <v>27</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="34" spans="3:6">
-      <c r="C34" s="6">
+      <c r="C34" s="3">
         <v>28</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="15.75">
-      <c r="C35" s="9">
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="6">
         <v>29</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -1277,50 +1853,50 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="15">
-      <c r="C36" s="9">
+    <row r="36" spans="3:6">
+      <c r="C36" s="6">
         <v>30</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="15">
-      <c r="C37" s="9">
+    <row r="37" spans="3:6">
+      <c r="C37" s="6">
         <v>31</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="9">
+      <c r="C38" s="6">
         <v>32</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15.75">
-      <c r="C39" s="9">
+    <row r="39" spans="3:6">
+      <c r="C39" s="6">
         <v>33</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -1333,9 +1909,23 @@
         <v>109</v>
       </c>
     </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="3">
+        <v>34</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/I18NConfig@c.xlsx
+++ b/Excel/I18NConfig@c.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20389"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE284FAF-3716-4A8F-A3B8-2C6C1409D563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="125">
   <si>
     <t>Id</t>
   </si>
@@ -346,26 +352,75 @@
     <t>???</t>
   </si>
   <si>
-    <t>Btn_Update_Skip</t>
-  </si>
-  <si>
     <t>跳过更新</t>
   </si>
   <si>
     <t>Skip</t>
+  </si>
+  <si>
+    <t>Update_Skip</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help:
+1. Mouse Right Move
+2. R Reload Dll
+3. T Transfer Map</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助:
+1. 右键点击移动
+2. R 热重载 Dll
+3. T 地图传送</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help_Info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试剧情</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help_Test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help_Setting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Story Test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入地图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Btn_Enter_Map</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter map</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,151 +460,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,194 +487,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -757,253 +496,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,62 +525,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1370,19 +829,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1433,7 +892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:6">
+    <row r="6" spans="3:6" s="1" customFormat="1">
       <c r="C6" s="5">
         <v>0</v>
       </c>
@@ -1447,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:6">
+    <row r="7" spans="3:6" s="1" customFormat="1">
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -1839,7 +1298,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
+    <row r="35" spans="3:6" ht="15.75">
       <c r="C35" s="6">
         <v>29</v>
       </c>
@@ -1853,7 +1312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="3:6" ht="15">
       <c r="C36" s="6">
         <v>30</v>
       </c>
@@ -1867,7 +1326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="3:6" ht="15">
       <c r="C37" s="6">
         <v>31</v>
       </c>
@@ -1895,7 +1354,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
+    <row r="39" spans="3:6" ht="15.75">
       <c r="C39" s="6">
         <v>33</v>
       </c>
@@ -1913,19 +1372,75 @@
       <c r="C40" s="3">
         <v>34</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>112</v>
+    </row>
+    <row r="41" spans="3:6" ht="57">
+      <c r="C41" s="3">
+        <v>35</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="C42" s="3">
+        <v>36</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="3">
+        <v>37</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="3">
+        <v>38</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>